--- a/Lizbona_miejsca_odnosniki.xlsx
+++ b/Lizbona_miejsca_odnosniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2E4E4E-54E8-4A5D-8E34-87FC7E101EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D007FE3-8AE1-4C11-ABD5-FD1CBBE3598E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="305">
   <si>
     <t>Miejsce</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Padrão dos Descobrimentos</t>
   </si>
   <si>
-    <t>Cabo da Roca</t>
-  </si>
-  <si>
     <t>LX Factory</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>['https://www.youtube.com/watch?v=6aFw0GVO_gg', 'https://www.youtube.com/watch?v=v-pjBQjPJ-s', 'https://www.youtube.com/watch?v=QeeR756ErZc', 'https://www.youtube.com/watch?v=ZDFTmtUbyB8', 'https://www.youtube.com/watch?v=18we-zx0cOI']</t>
   </si>
   <si>
-    <t>['https://www.youtube.com/watch?v=VxE1BGgPpnc']</t>
-  </si>
-  <si>
     <t>['https://www.youtube.com/watch?v=H1p86mKcv2E', 'https://www.youtube.com/watch?v=QeeR756ErZc', 'https://www.youtube.com/watch?v=Ws8IUOTlmxE', 'https://www.youtube.com/watch?v=6aFw0GVO_gg']</t>
   </si>
   <si>
@@ -391,9 +385,6 @@
     <t>Av. 24 de Julho 49, 1200-479 Lisboa, Portugalia</t>
   </si>
   <si>
-    <t>Estrada do Cabo da Roca s/n, 2705-001 Colares, Portugalia</t>
-  </si>
-  <si>
     <t>R. Rodrigues de Faria 103, 1300-501 Lisboa, Portugalia</t>
   </si>
   <si>
@@ -515,9 +506,6 @@
   </si>
   <si>
     <t>Pomnik</t>
-  </si>
-  <si>
-    <t>Miejsce historyczne</t>
   </si>
   <si>
     <t>Centrum sztuki</t>
@@ -621,13 +609,6 @@
 The monument is </t>
   </si>
   <si>
-    <t>Położony w parku narodowym punkt widokowy z panoramą morza i latarnią morską mieszczącą biuro turystyczne.Cabo da Roca is a prominent cape located in the Lisbon District of Portugal. It is notable for being the westernmost point of mainland Europe, which is often symbolically emphasized by a monument and a certificate you can obtain from the local tourism office stating that you have visited this extreme point.
-Geographically, Cabo da Roca is situated within the Sintra mountain range and falls within the limits of the Sintra-Cascais Natural Park. The coordinates you provided, 38.7804003, -9.499111599999999, precisely pinpoint its location along the Atlantic Ocean.
-The cape features a lighthouse, which has been operational since 1772, standing about 165 meters above sea level. The area around Cabo da Roca is rugged, with cliffs that offer dramatic views of the ocean. The terrain is mostly rocky and covered in low-lying vegetation typical of a Mediterranean climate.
-This location is not only significant geographically but also attracts numerous tourists who visit to experience its natural beauty and the unique distinction of standing at Europe's western edge.
-The name "Cabo da Roca" translates to "Cape Roca" in English and is often included in travel itineraries that explore the region around Lisbon</t>
-  </si>
-  <si>
     <t>Historyczny kompleks przemysłowy z wieloma sklepami artystycznymi i wyjątkowymi restauracjami.LX Factory is a dynamic cultural and creative hub located in the Alcântara district of Lisbon, Portugal. Situated under the 25 de Abril Bridge, LX Factory has transformed a cluster of 19th-century industrial buildings into a lively and artistic area. 
 This unique space houses a diverse mix of businesses including fashion boutiques, bookstores, art studios, and some notable architectural and design firms. LX Factory is also known for its dining options, which range from casual cafes to higher-end restaurants.
 One of the most iconic spots within LX Factory is the Ler Devagar bookstore, which is housed in a former printing factory. The space retains much of its industrial charm with high ceilings and old printing presses juxtaposed against shelves of books. 
@@ -864,13 +845,6 @@
 The monument is </t>
   </si>
   <si>
-    <t>Cabo da Roca is a prominent cape located in the Lisbon District of Portugal. It is notable for being the westernmost point of mainland Europe, which is often symbolically emphasized by a monument and a certificate you can obtain from the local tourism office stating that you have visited this extreme point.
-Geographically, Cabo da Roca is situated within the Sintra mountain range and falls within the limits of the Sintra-Cascais Natural Park. The coordinates you provided, 38.7804003, -9.499111599999999, precisely pinpoint its location along the Atlantic Ocean.
-The cape features a lighthouse, which has been operational since 1772, standing about 165 meters above sea level. The area around Cabo da Roca is rugged, with cliffs that offer dramatic views of the ocean. The terrain is mostly rocky and covered in low-lying vegetation typical of a Mediterranean climate.
-This location is not only significant geographically but also attracts numerous tourists who visit to experience its natural beauty and the unique distinction of standing at Europe's western edge.
-The name "Cabo da Roca" translates to "Cape Roca" in English and is often included in travel itineraries that explore the region around Lisbon</t>
-  </si>
-  <si>
     <t>LX Factory is a dynamic cultural and creative hub located in the Alcântara district of Lisbon, Portugal. Situated under the 25 de Abril Bridge, LX Factory has transformed a cluster of 19th-century industrial buildings into a lively and artistic area. 
 This unique space houses a diverse mix of businesses including fashion boutiques, bookstores, art studios, and some notable architectural and design firms. LX Factory is also known for its dining options, which range from casual cafes to higher-end restaurants.
 One of the most iconic spots within LX Factory is the Ler Devagar bookstore, which is housed in a former printing factory. The space retains much of its industrial charm with high ceilings and old printing presses juxtaposed against shelves of books. 
@@ -1091,9 +1065,6 @@
   </si>
   <si>
     <t>Pomnik Odkrywców, zwany także Padrão dos Descobrimentos, jest majestatyczną konstrukcją przypominającą dziób statku, która wznosi się nad północnym brzegiem rzeki Tag. Zaprojektowany, by uczcić epokę odkryć geograficznych, monument skupia postacie takie jak Henryk Żeglarz, który trzyma model karaweli. Wizyta przy tym pomniku to podróż w czasie do 15-tego i 16-tego wieku, kiedy to portugalscy żeglarze rozszerzali granice znanego świata.</t>
-  </si>
-  <si>
-    <t>Cabo da Roca to kluczowy przylądek o znaczeniu geograficznym, będący najbardziej na zachód wysuniętym punktem kontynentalnej Europy. Gośćmi przyciąga dzięki malowniczym klifom, starym latarniom morskim i możliwości otrzymania certyfikatu potwierdzającego wizytę na tym ekstremalnym punkcie. Miejsce to jest idealne do oglądania oceanicznych krajobrazów oraz eksploracji szlaków w ramach parku naturalnego Sintra-Cascais.</t>
   </si>
   <si>
     <t xml:space="preserve">LX Factory to kwintesencja kreatywności i kultury, zlokalizowany w starych budynkach przemysłowych w dzielnicy Alcântara. Oferuje eklektyczne połączenie butików mody, księgarni i studiów artystycznych, a także bogactwo opcji gastronomicznych, od kawiarni po wykwintne restauracje. </t>
@@ -1561,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1615,13 +1586,13 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E2">
         <v>38.707282800000002</v>
@@ -1630,7 +1601,7 @@
         <v>-9.136361299999999</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H2">
         <v>4.7</v>
@@ -1639,16 +1610,16 @@
         <v>107951</v>
       </c>
       <c r="J2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1656,13 +1627,13 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E3">
         <v>38.691583700000002</v>
@@ -1671,7 +1642,7 @@
         <v>-9.2159772999999987</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H3">
         <v>4.5999999999999996</v>
@@ -1680,16 +1651,16 @@
         <v>91535</v>
       </c>
       <c r="J3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1697,13 +1668,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4">
         <v>38.713909200000003</v>
@@ -1712,7 +1683,7 @@
         <v>-9.1334761999999987</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H4">
         <v>4.4000000000000004</v>
@@ -1721,16 +1692,16 @@
         <v>86196</v>
       </c>
       <c r="J4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1738,13 +1709,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E5">
         <v>38.763543499999997</v>
@@ -1753,7 +1724,7 @@
         <v>-9.0937415000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H5">
         <v>4.7</v>
@@ -1762,16 +1733,16 @@
         <v>86134</v>
       </c>
       <c r="J5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1779,13 +1750,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E6">
         <v>38.6975105</v>
@@ -1794,7 +1765,7 @@
         <v>-9.2032276</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H6">
         <v>4.5999999999999996</v>
@@ -1803,16 +1774,16 @@
         <v>80158</v>
       </c>
       <c r="J6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1820,13 +1791,13 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E7">
         <v>38.707074499999997</v>
@@ -1835,7 +1806,7 @@
         <v>-9.1459172999999989</v>
       </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H7">
         <v>4.4000000000000004</v>
@@ -1844,16 +1815,16 @@
         <v>59153</v>
       </c>
       <c r="J7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1861,13 +1832,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E8">
         <v>38.6935973</v>
@@ -1876,7 +1847,7 @@
         <v>-9.2057114999999996</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H8">
         <v>4.5999999999999996</v>
@@ -1885,16 +1856,16 @@
         <v>55535</v>
       </c>
       <c r="J8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1902,40 +1873,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E9">
-        <v>38.780400299999997</v>
+        <v>38.703497900000002</v>
       </c>
       <c r="F9">
-        <v>-9.4991115999999991</v>
+        <v>-9.1788729999999994</v>
       </c>
       <c r="G9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H9">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I9">
-        <v>54958</v>
+        <v>51935</v>
       </c>
       <c r="J9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M9" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1943,40 +1914,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E10">
-        <v>38.703497900000002</v>
+        <v>38.712130100000003</v>
       </c>
       <c r="F10">
-        <v>-9.1788729999999994</v>
+        <v>-9.1394296999999991</v>
       </c>
       <c r="G10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H10">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>51935</v>
+        <v>48293</v>
       </c>
       <c r="J10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="M10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1984,40 +1955,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E11">
-        <v>38.712130100000003</v>
+        <v>38.697890899999997</v>
       </c>
       <c r="F11">
-        <v>-9.1394296999999991</v>
+        <v>-9.2067038999999991</v>
       </c>
       <c r="G11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I11">
-        <v>48293</v>
+        <v>48185</v>
       </c>
       <c r="J11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M11" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -2025,40 +1996,40 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E12">
-        <v>38.697890899999997</v>
+        <v>38.711695599999999</v>
       </c>
       <c r="F12">
-        <v>-9.2067038999999991</v>
+        <v>-9.1301971999999996</v>
       </c>
       <c r="G12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H12">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I12">
-        <v>48185</v>
+        <v>32694</v>
       </c>
       <c r="J12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M12" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -2066,40 +2037,40 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E13">
-        <v>38.711695599999999</v>
+        <v>38.7098339</v>
       </c>
       <c r="F13">
-        <v>-9.1301971999999996</v>
+        <v>-9.1329534999999993</v>
       </c>
       <c r="G13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H13">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I13">
-        <v>32694</v>
+        <v>26670</v>
       </c>
       <c r="J13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2107,40 +2078,40 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E14">
-        <v>38.7098339</v>
+        <v>38.715230200000001</v>
       </c>
       <c r="F14">
-        <v>-9.1329534999999993</v>
+        <v>-9.1441707999999995</v>
       </c>
       <c r="G14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H14">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I14">
-        <v>26670</v>
+        <v>26472</v>
       </c>
       <c r="J14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M14" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2148,40 +2119,40 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E15">
-        <v>38.715230200000001</v>
+        <v>38.708444700000001</v>
       </c>
       <c r="F15">
-        <v>-9.1441707999999995</v>
+        <v>-9.1368242999999989</v>
       </c>
       <c r="G15" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="H15">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="I15">
-        <v>26472</v>
+        <v>23139</v>
       </c>
       <c r="J15" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M15" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -2189,40 +2160,40 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E16">
-        <v>38.708444700000001</v>
+        <v>38.712038300000003</v>
       </c>
       <c r="F16">
-        <v>-9.1368242999999989</v>
+        <v>-9.1406128999999989</v>
       </c>
       <c r="G16" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="H16">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I16">
-        <v>23139</v>
+        <v>17240</v>
       </c>
       <c r="J16" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M16" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -2230,40 +2201,40 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E17">
-        <v>38.712038300000003</v>
+        <v>38.720256999999997</v>
       </c>
       <c r="F17">
-        <v>-9.1406128999999989</v>
+        <v>-9.1357429000000003</v>
       </c>
       <c r="G17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H17">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I17">
-        <v>17240</v>
+        <v>16523</v>
       </c>
       <c r="J17" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M17" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -2271,40 +2242,40 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E18">
-        <v>38.720256999999997</v>
+        <v>38.713803599999999</v>
       </c>
       <c r="F18">
-        <v>-9.1357429000000003</v>
+        <v>-9.1393681000000004</v>
       </c>
       <c r="G18" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="H18">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I18">
-        <v>16523</v>
+        <v>15052</v>
       </c>
       <c r="J18" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M18" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -2312,40 +2283,40 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E19">
-        <v>38.713803599999999</v>
+        <v>38.691112099999998</v>
       </c>
       <c r="F19">
-        <v>-9.1393681000000004</v>
+        <v>-9.1774261999999993</v>
       </c>
       <c r="G19" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="H19">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="I19">
-        <v>15052</v>
+        <v>14610</v>
       </c>
       <c r="J19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M19" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -2353,40 +2324,40 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E20">
-        <v>38.691112099999998</v>
+        <v>38.725055900000001</v>
       </c>
       <c r="F20">
-        <v>-9.1774261999999993</v>
+        <v>-9.1135389999999994</v>
       </c>
       <c r="G20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H20">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I20">
-        <v>14610</v>
+        <v>13342</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M20" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -2394,40 +2365,40 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E21">
-        <v>38.725055900000001</v>
+        <v>38.716558999999997</v>
       </c>
       <c r="F21">
-        <v>-9.1135389999999994</v>
+        <v>-9.1316489999999995</v>
       </c>
       <c r="G21" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H21">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="I21">
-        <v>13342</v>
+        <v>10453</v>
       </c>
       <c r="J21" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M21" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -2435,40 +2406,40 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E22">
-        <v>38.716558999999997</v>
+        <v>38.714994399999988</v>
       </c>
       <c r="F22">
-        <v>-9.1316489999999995</v>
+        <v>-9.1246834999999997</v>
       </c>
       <c r="G22" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="H22">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I22">
-        <v>10453</v>
+        <v>10014</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M22" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2476,40 +2447,40 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E23">
-        <v>38.714994399999988</v>
+        <v>38.758038999999997</v>
       </c>
       <c r="F23">
-        <v>-9.1246834999999997</v>
+        <v>-9.0374667999999989</v>
       </c>
       <c r="G23" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="H23">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I23">
-        <v>10014</v>
+        <v>8475</v>
       </c>
       <c r="J23" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M23" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2517,40 +2488,40 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E24">
-        <v>38.758038999999997</v>
+        <v>38.710839399999998</v>
       </c>
       <c r="F24">
-        <v>-9.0374667999999989</v>
+        <v>-9.1440550999999992</v>
       </c>
       <c r="G24" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="H24">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="I24">
-        <v>8475</v>
+        <v>7984</v>
       </c>
       <c r="J24" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -2558,40 +2529,40 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E25">
-        <v>38.710839399999998</v>
+        <v>38.7152423</v>
       </c>
       <c r="F25">
-        <v>-9.1440550999999992</v>
+        <v>-9.1360783999999988</v>
       </c>
       <c r="G25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H25">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="I25">
-        <v>7984</v>
+        <v>7376</v>
       </c>
       <c r="J25" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -2599,40 +2570,40 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E26">
-        <v>38.7152423</v>
+        <v>38.710700299999999</v>
       </c>
       <c r="F26">
-        <v>-9.1360783999999988</v>
+        <v>-9.1420317000000004</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H26">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I26">
-        <v>7376</v>
+        <v>7260</v>
       </c>
       <c r="J26" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2640,40 +2611,40 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E27">
-        <v>38.710700299999999</v>
+        <v>38.713186100000001</v>
       </c>
       <c r="F27">
-        <v>-9.1420317000000004</v>
+        <v>-9.1379473999999998</v>
       </c>
       <c r="G27" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="H27">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="I27">
-        <v>7260</v>
+        <v>4889</v>
       </c>
       <c r="J27" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M27" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2681,122 +2652,122 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E28">
-        <v>38.713186100000001</v>
+        <v>38.715887299999999</v>
       </c>
       <c r="F28">
-        <v>-9.1379473999999998</v>
+        <v>-9.1406235000000002</v>
       </c>
       <c r="G28" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="H28">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>4889</v>
+        <v>4020</v>
       </c>
       <c r="J28" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E29">
-        <v>38.715887299999999</v>
+        <v>38.709007</v>
       </c>
       <c r="F29">
-        <v>-9.1406235000000002</v>
+        <v>-9.139505999999999</v>
       </c>
       <c r="G29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I29">
-        <v>4020</v>
+        <v>3987</v>
       </c>
       <c r="J29" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>255</v>
-      </c>
-      <c r="M29" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E30">
-        <v>38.709007</v>
+        <v>38.714184799999998</v>
       </c>
       <c r="F30">
-        <v>-9.139505999999999</v>
+        <v>-9.1532046000000005</v>
       </c>
       <c r="G30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H30">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I30">
-        <v>3987</v>
+        <v>3514</v>
       </c>
       <c r="J30" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>256</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>299</v>
+        <v>251</v>
+      </c>
+      <c r="M30" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -2804,40 +2775,40 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E31">
-        <v>38.714184799999998</v>
+        <v>38.709682299999997</v>
       </c>
       <c r="F31">
-        <v>-9.1532046000000005</v>
+        <v>-9.1430290000000003</v>
       </c>
       <c r="G31" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H31">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I31">
-        <v>3514</v>
+        <v>3427</v>
       </c>
       <c r="J31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="M31" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -2845,40 +2816,40 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E32">
-        <v>38.709682299999997</v>
+        <v>38.714083199999997</v>
       </c>
       <c r="F32">
-        <v>-9.1430290000000003</v>
+        <v>-9.1356457999999989</v>
       </c>
       <c r="G32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H32">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I32">
-        <v>3427</v>
+        <v>3287</v>
       </c>
       <c r="J32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M32" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -2886,40 +2857,40 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E33">
-        <v>38.714083199999997</v>
+        <v>38.709005099999999</v>
       </c>
       <c r="F33">
-        <v>-9.1356457999999989</v>
+        <v>-9.1698332999999987</v>
       </c>
       <c r="G33" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H33">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="I33">
-        <v>3287</v>
+        <v>2729</v>
       </c>
       <c r="J33" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M33" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2927,40 +2898,40 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E34">
-        <v>38.709005099999999</v>
+        <v>38.710864999999998</v>
       </c>
       <c r="F34">
-        <v>-9.1698332999999987</v>
+        <v>-9.1430942999999996</v>
       </c>
       <c r="G34" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H34">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I34">
-        <v>2729</v>
+        <v>2622</v>
       </c>
       <c r="J34" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M34" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -2971,37 +2942,37 @@
         <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E35">
-        <v>38.710864999999998</v>
+        <v>38.717588300000003</v>
       </c>
       <c r="F35">
-        <v>-9.1430942999999996</v>
+        <v>-9.1416576999999997</v>
       </c>
       <c r="G35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H35">
         <v>4.5</v>
       </c>
       <c r="I35">
-        <v>2622</v>
+        <v>2397</v>
       </c>
       <c r="J35" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M35" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -3009,40 +2980,40 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E36">
-        <v>38.717588300000003</v>
+        <v>38.697553200000002</v>
       </c>
       <c r="F36">
-        <v>-9.1416576999999997</v>
+        <v>-9.1983949000000003</v>
       </c>
       <c r="G36" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H36">
         <v>4.5</v>
       </c>
       <c r="I36">
-        <v>2397</v>
+        <v>2390</v>
       </c>
       <c r="J36" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="M36" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -3050,40 +3021,40 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E37">
-        <v>38.697553200000002</v>
+        <v>38.715080200000003</v>
       </c>
       <c r="F37">
-        <v>-9.1983949000000003</v>
+        <v>-9.1396236000000002</v>
       </c>
       <c r="G37" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H37">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I37">
-        <v>2390</v>
+        <v>1631</v>
       </c>
       <c r="J37" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M37" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -3091,40 +3062,40 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E38">
-        <v>38.715080200000003</v>
+        <v>38.707300600000003</v>
       </c>
       <c r="F38">
-        <v>-9.1396236000000002</v>
+        <v>-9.1437638999999997</v>
       </c>
       <c r="G38" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H38">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I38">
-        <v>1631</v>
+        <v>1535</v>
       </c>
       <c r="J38" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M38" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -3138,34 +3109,34 @@
         <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E39">
-        <v>38.707300600000003</v>
+        <v>38.707417700000001</v>
       </c>
       <c r="F39">
-        <v>-9.1437638999999997</v>
+        <v>-9.1409886999999994</v>
       </c>
       <c r="G39" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H39">
         <v>4.3</v>
       </c>
       <c r="I39">
-        <v>1535</v>
+        <v>1199</v>
       </c>
       <c r="J39" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M39" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -3173,40 +3144,40 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E40">
-        <v>38.707417700000001</v>
+        <v>38.7133124</v>
       </c>
       <c r="F40">
-        <v>-9.1409886999999994</v>
+        <v>-9.1531371999999998</v>
       </c>
       <c r="G40" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="H40">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I40">
-        <v>1199</v>
+        <v>1151</v>
       </c>
       <c r="J40" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M40" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -3214,40 +3185,40 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E41">
-        <v>38.7133124</v>
+        <v>38.709899800000002</v>
       </c>
       <c r="F41">
-        <v>-9.1531371999999998</v>
+        <v>-9.1513223000000004</v>
       </c>
       <c r="G41" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H41">
         <v>4.5999999999999996</v>
       </c>
       <c r="I41">
-        <v>1151</v>
+        <v>1071</v>
       </c>
       <c r="J41" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M41" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -3255,81 +3226,40 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E42">
-        <v>38.709899800000002</v>
+        <v>38.7105958</v>
       </c>
       <c r="F42">
-        <v>-9.1513223000000004</v>
+        <v>-9.1376486000000003</v>
       </c>
       <c r="G42" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H42">
         <v>4.5999999999999996</v>
       </c>
       <c r="I42">
-        <v>1071</v>
+        <v>585</v>
       </c>
       <c r="J42" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M42" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43">
-        <v>38.7105958</v>
-      </c>
-      <c r="F43">
-        <v>-9.1376486000000003</v>
-      </c>
-      <c r="G43" t="s">
-        <v>185</v>
-      </c>
-      <c r="H43">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I43">
-        <v>585</v>
-      </c>
-      <c r="J43" t="s">
-        <v>227</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43" t="s">
-        <v>269</v>
-      </c>
-      <c r="M43" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
